--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H2">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I2">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J2">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>0.07470313424399999</v>
+        <v>1.805257958053333</v>
       </c>
       <c r="R2">
-        <v>0.6723282081959999</v>
+        <v>16.24732162248</v>
       </c>
       <c r="S2">
-        <v>3.691380197627788E-07</v>
+        <v>5.058887958325198E-06</v>
       </c>
       <c r="T2">
-        <v>3.691380197627789E-07</v>
+        <v>5.058887958325195E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H3">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I3">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J3">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>6.109143839902223</v>
+        <v>28.15035046635556</v>
       </c>
       <c r="R3">
-        <v>54.98229455912</v>
+        <v>253.3531541972</v>
       </c>
       <c r="S3">
-        <v>3.01877194622341E-05</v>
+        <v>7.888593891060581E-05</v>
       </c>
       <c r="T3">
-        <v>3.018771946223411E-05</v>
+        <v>7.888593891060577E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H4">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I4">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J4">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>5.672182057061334</v>
+        <v>33.30691270713111</v>
       </c>
       <c r="R4">
-        <v>51.049638513552</v>
+        <v>299.76221436418</v>
       </c>
       <c r="S4">
-        <v>2.802851678804571E-05</v>
+        <v>9.333621207508127E-05</v>
       </c>
       <c r="T4">
-        <v>2.802851678804571E-05</v>
+        <v>9.333621207508124E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H5">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I5">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J5">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>0.9824612785564444</v>
+        <v>3.178489791971111</v>
       </c>
       <c r="R5">
-        <v>8.842151507007999</v>
+        <v>28.60640812774</v>
       </c>
       <c r="S5">
-        <v>4.85473353333983E-06</v>
+        <v>8.90710585848982E-06</v>
       </c>
       <c r="T5">
-        <v>4.854733533339831E-06</v>
+        <v>8.907105858489817E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H6">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I6">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J6">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>2.288714356304444</v>
+        <v>10.77411070668667</v>
       </c>
       <c r="R6">
-        <v>20.59842920674</v>
+        <v>96.96699636018</v>
       </c>
       <c r="S6">
-        <v>1.130945165606251E-05</v>
+        <v>3.019237149603498E-05</v>
       </c>
       <c r="T6">
-        <v>1.130945165606251E-05</v>
+        <v>3.019237149603497E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.04271066666666667</v>
+        <v>0.1968066666666667</v>
       </c>
       <c r="H7">
-        <v>0.128132</v>
+        <v>0.5904199999999999</v>
       </c>
       <c r="I7">
-        <v>0.0001012801185864889</v>
+        <v>0.000349895957125676</v>
       </c>
       <c r="J7">
-        <v>0.0001012801185864889</v>
+        <v>0.0003498959571256759</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>5.369037633429334</v>
+        <v>47.64482116658444</v>
       </c>
       <c r="R7">
-        <v>48.321338700864</v>
+        <v>428.80339049926</v>
       </c>
       <c r="S7">
-        <v>2.653055912704392E-05</v>
+        <v>0.0001335154408271389</v>
       </c>
       <c r="T7">
-        <v>2.653055912704392E-05</v>
+        <v>0.0001335154408271389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.345437</v>
       </c>
       <c r="I8">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J8">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>8.363633643428999</v>
+        <v>43.86235951695866</v>
       </c>
       <c r="R8">
-        <v>75.27270279086099</v>
+        <v>394.7612356526279</v>
       </c>
       <c r="S8">
-        <v>4.132805393509583E-05</v>
+        <v>0.0001229158200877557</v>
       </c>
       <c r="T8">
-        <v>4.132805393509584E-05</v>
+        <v>0.0001229158200877557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.345437</v>
       </c>
       <c r="I9">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J9">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>683.9691730344912</v>
@@ -1013,10 +1013,10 @@
         <v>6155.72255731042</v>
       </c>
       <c r="S9">
-        <v>0.003379764834070749</v>
+        <v>0.001916691959669293</v>
       </c>
       <c r="T9">
-        <v>0.003379764834070749</v>
+        <v>0.001916691959669293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>14.345437</v>
       </c>
       <c r="I10">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J10">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>635.0476879476146</v>
+        <v>809.2581855368193</v>
       </c>
       <c r="R10">
-        <v>5715.429191528532</v>
+        <v>7283.323669831373</v>
       </c>
       <c r="S10">
-        <v>0.003138024238959449</v>
+        <v>0.002267790302059073</v>
       </c>
       <c r="T10">
-        <v>0.003138024238959449</v>
+        <v>0.002267790302059072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.345437</v>
       </c>
       <c r="I11">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J11">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>109.9946646932142</v>
+        <v>77.22777864209321</v>
       </c>
       <c r="R11">
-        <v>989.9519822389279</v>
+        <v>695.0500077788389</v>
       </c>
       <c r="S11">
-        <v>0.0005435275657471509</v>
+        <v>0.000216415985138201</v>
       </c>
       <c r="T11">
-        <v>0.000543527565747151</v>
+        <v>0.0002164159851382009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>14.345437</v>
       </c>
       <c r="I12">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J12">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>256.2404989336072</v>
+        <v>261.7786090813303</v>
       </c>
       <c r="R12">
-        <v>2306.164490402465</v>
+        <v>2356.007481731973</v>
       </c>
       <c r="S12">
-        <v>0.001266186637503437</v>
+        <v>0.0007335841658090266</v>
       </c>
       <c r="T12">
-        <v>0.001266186637503437</v>
+        <v>0.0007335841658090265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>14.345437</v>
       </c>
       <c r="I13">
-        <v>0.01133914682152003</v>
+        <v>0.00850142340960856</v>
       </c>
       <c r="J13">
-        <v>0.01133914682152003</v>
+        <v>0.008501423409608558</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>601.1081628398027</v>
+        <v>1157.626402258568</v>
       </c>
       <c r="R13">
-        <v>5409.973465558224</v>
+        <v>10418.63762032711</v>
       </c>
       <c r="S13">
-        <v>0.002970315491304151</v>
+        <v>0.003244025176845211</v>
       </c>
       <c r="T13">
-        <v>0.002970315491304151</v>
+        <v>0.003244025176845211</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H14">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I14">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J14">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>8.331824818926</v>
+        <v>114.2904190178573</v>
       </c>
       <c r="R14">
-        <v>74.98642337033401</v>
+        <v>1028.613771160716</v>
       </c>
       <c r="S14">
-        <v>4.117087383004606E-05</v>
+        <v>0.0003202769011165873</v>
       </c>
       <c r="T14">
-        <v>4.117087383004608E-05</v>
+        <v>0.0003202769011165871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H15">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I15">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J15">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>681.3678807830535</v>
+        <v>1782.191479033083</v>
       </c>
       <c r="R15">
-        <v>6132.310927047481</v>
+        <v>16039.72331129774</v>
       </c>
       <c r="S15">
-        <v>0.003366910810203643</v>
+        <v>0.004994248590618248</v>
       </c>
       <c r="T15">
-        <v>0.003366910810203644</v>
+        <v>0.004994248590618245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H16">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I16">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J16">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>632.6324553683121</v>
+        <v>2108.652113958304</v>
       </c>
       <c r="R16">
-        <v>5693.692098314808</v>
+        <v>18977.86902562474</v>
       </c>
       <c r="S16">
-        <v>0.003126089610237202</v>
+        <v>0.005909091684106834</v>
       </c>
       <c r="T16">
-        <v>0.003126089610237202</v>
+        <v>0.005909091684106832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H17">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I17">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J17">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>109.5763296567147</v>
+        <v>201.2293747537815</v>
       </c>
       <c r="R17">
-        <v>986.1869669104321</v>
+        <v>1811.064372784033</v>
       </c>
       <c r="S17">
-        <v>0.0005414604052654173</v>
+        <v>0.0005639065908901749</v>
       </c>
       <c r="T17">
-        <v>0.0005414604052654175</v>
+        <v>0.0005639065908901747</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H18">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I18">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J18">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>255.2659573158567</v>
+        <v>682.1061897103258</v>
       </c>
       <c r="R18">
-        <v>2297.39361584271</v>
+        <v>6138.955707392932</v>
       </c>
       <c r="S18">
-        <v>0.001261371038176937</v>
+        <v>0.001911471307483196</v>
       </c>
       <c r="T18">
-        <v>0.001261371038176937</v>
+        <v>0.001911471307483195</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.763626</v>
+        <v>12.45977966666667</v>
       </c>
       <c r="H19">
-        <v>14.290878</v>
+        <v>37.379339</v>
       </c>
       <c r="I19">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116072</v>
       </c>
       <c r="J19">
-        <v>0.01129602143527803</v>
+        <v>0.02215182344116071</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>598.8220100891841</v>
+        <v>3016.381426747291</v>
       </c>
       <c r="R19">
-        <v>5389.398090802657</v>
+        <v>27147.43284072562</v>
       </c>
       <c r="S19">
-        <v>0.002959018697564786</v>
+        <v>0.008452828366945679</v>
       </c>
       <c r="T19">
-        <v>0.002959018697564787</v>
+        <v>0.008452828366945676</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H20">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I20">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J20">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>1.00186224297</v>
+        <v>2.922040027053333</v>
       </c>
       <c r="R20">
-        <v>9.01676018673</v>
+        <v>26.29836024348</v>
       </c>
       <c r="S20">
-        <v>4.950601446481416E-06</v>
+        <v>8.188454752773688E-06</v>
       </c>
       <c r="T20">
-        <v>4.950601446481418E-06</v>
+        <v>8.188454752773686E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H21">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I21">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J21">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>81.93124173451112</v>
+        <v>45.56492908468889</v>
       </c>
       <c r="R21">
-        <v>737.3811756106001</v>
+        <v>410.0843617622</v>
       </c>
       <c r="S21">
-        <v>0.0004048549854922869</v>
+        <v>0.0001276869435972674</v>
       </c>
       <c r="T21">
-        <v>0.000404854985492287</v>
+        <v>0.0001276869435972674</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H22">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I22">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J22">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>76.07103899630667</v>
+        <v>53.91148210904778</v>
       </c>
       <c r="R22">
-        <v>684.63935096676</v>
+        <v>485.2033389814301</v>
       </c>
       <c r="S22">
-        <v>0.0003758973834307248</v>
+        <v>0.0001510765519355593</v>
       </c>
       <c r="T22">
-        <v>0.0003758973834307248</v>
+        <v>0.0001510765519355593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H23">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I23">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J23">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>13.17603163678222</v>
+        <v>5.144790724387778</v>
       </c>
       <c r="R23">
-        <v>118.58428473104</v>
+        <v>46.30311651949</v>
       </c>
       <c r="S23">
-        <v>6.510803430077185E-05</v>
+        <v>1.441728575553499E-05</v>
       </c>
       <c r="T23">
-        <v>6.510803430077186E-05</v>
+        <v>1.441728575553498E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H24">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I24">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J24">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>30.69451532027222</v>
+        <v>17.43927099193667</v>
       </c>
       <c r="R24">
-        <v>276.25063788245</v>
+        <v>156.95343892743</v>
       </c>
       <c r="S24">
-        <v>0.0001516738583671088</v>
+        <v>4.887020031099174E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001516738583671088</v>
+        <v>4.887020031099173E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5728033333333333</v>
+        <v>0.3185566666666667</v>
       </c>
       <c r="H25">
-        <v>1.71841</v>
+        <v>0.95567</v>
       </c>
       <c r="I25">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706358</v>
       </c>
       <c r="J25">
-        <v>0.001358292765118849</v>
+        <v>0.0005663511895706357</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>72.00549401914668</v>
+        <v>77.11921385500111</v>
       </c>
       <c r="R25">
-        <v>648.0494461723201</v>
+        <v>694.0729246950101</v>
       </c>
       <c r="S25">
-        <v>0.0003558079020814749</v>
+        <v>0.0002161117532185086</v>
       </c>
       <c r="T25">
-        <v>0.0003558079020814749</v>
+        <v>0.0002161117532185086</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H26">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I26">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J26">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>719.2324598895721</v>
+        <v>4959.16170378784</v>
       </c>
       <c r="R26">
-        <v>6473.092139006148</v>
+        <v>44632.45533409057</v>
       </c>
       <c r="S26">
-        <v>0.003554014817177138</v>
+        <v>0.0138970961544647</v>
       </c>
       <c r="T26">
-        <v>0.00355401481717714</v>
+        <v>0.0138970961544647</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H27">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I27">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J27">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>58818.07498786452</v>
+        <v>77330.85421847085</v>
       </c>
       <c r="R27">
-        <v>529362.6748907807</v>
+        <v>695977.6879662375</v>
       </c>
       <c r="S27">
-        <v>0.290643598116806</v>
+        <v>0.2167048346014082</v>
       </c>
       <c r="T27">
-        <v>0.2906435981168061</v>
+        <v>0.2167048346014081</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H28">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I28">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J28">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>54611.06143842127</v>
+        <v>91496.26801630165</v>
       </c>
       <c r="R28">
-        <v>491499.5529457915</v>
+        <v>823466.4121467149</v>
       </c>
       <c r="S28">
-        <v>0.2698550640549786</v>
+        <v>0.2564006802653788</v>
       </c>
       <c r="T28">
-        <v>0.2698550640549786</v>
+        <v>0.2564006802653787</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H29">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I29">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J29">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>9459.014662147991</v>
+        <v>8731.519383091972</v>
       </c>
       <c r="R29">
-        <v>85131.13195933192</v>
+        <v>78583.67444782775</v>
       </c>
       <c r="S29">
-        <v>0.04674076900023568</v>
+        <v>0.02446840246179491</v>
       </c>
       <c r="T29">
-        <v>0.04674076900023569</v>
+        <v>0.0244684024617949</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H30">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I30">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J30">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>22035.45638517351</v>
+        <v>29597.18691205047</v>
       </c>
       <c r="R30">
-        <v>198319.1074665616</v>
+        <v>266374.6822084542</v>
       </c>
       <c r="S30">
-        <v>0.1088859900847513</v>
+        <v>0.08294041956814283</v>
       </c>
       <c r="T30">
-        <v>0.1088859900847514</v>
+        <v>0.08294041956814281</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>411.212972</v>
+        <v>540.6407876666666</v>
       </c>
       <c r="H31">
-        <v>1233.638916</v>
+        <v>1621.922363</v>
       </c>
       <c r="I31">
-        <v>0.9751123505867978</v>
+        <v>0.961187083068702</v>
       </c>
       <c r="J31">
-        <v>0.9751123505867979</v>
+        <v>0.9611870830687018</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>51692.42473439086</v>
+        <v>130883.4404851107</v>
       </c>
       <c r="R31">
-        <v>465231.8226095178</v>
+        <v>1177950.964365996</v>
       </c>
       <c r="S31">
-        <v>0.255432914512849</v>
+        <v>0.3667756500175127</v>
       </c>
       <c r="T31">
-        <v>0.255432914512849</v>
+        <v>0.3667756500175126</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H32">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I32">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J32">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>0.584840677176</v>
+        <v>37.37181475963867</v>
       </c>
       <c r="R32">
-        <v>5.263566094584</v>
+        <v>336.346332836748</v>
       </c>
       <c r="S32">
-        <v>2.889931348051984E-06</v>
+        <v>0.0001047273176804966</v>
       </c>
       <c r="T32">
-        <v>2.889931348051985E-06</v>
+        <v>0.0001047273176804965</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H33">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I33">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J33">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>47.82765618138667</v>
+        <v>582.758645851358</v>
       </c>
       <c r="R33">
-        <v>430.44890563248</v>
+        <v>5244.827812662221</v>
       </c>
       <c r="S33">
-        <v>0.000236335549657478</v>
+        <v>0.001633068937852169</v>
       </c>
       <c r="T33">
-        <v>0.0002363355496574781</v>
+        <v>0.001633068937852169</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H34">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I34">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J34">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>44.406741817312</v>
+        <v>689.5079821437828</v>
       </c>
       <c r="R34">
-        <v>399.6606763558081</v>
+        <v>6205.571839294044</v>
       </c>
       <c r="S34">
-        <v>0.0002194314456073324</v>
+        <v>0.001932213406109376</v>
       </c>
       <c r="T34">
-        <v>0.0002194314456073324</v>
+        <v>0.001932213406109375</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H35">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I35">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J35">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>7.691555719381333</v>
+        <v>65.79997677951657</v>
       </c>
       <c r="R35">
-        <v>69.224001474432</v>
+        <v>592.199791015649</v>
       </c>
       <c r="S35">
-        <v>3.800704851116129E-05</v>
+        <v>0.0001843917699977477</v>
       </c>
       <c r="T35">
-        <v>3.800704851116129E-05</v>
+        <v>0.0001843917699977476</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H36">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I36">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J36">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>17.91803339377333</v>
+        <v>223.0418471409604</v>
       </c>
       <c r="R36">
-        <v>161.26230054396</v>
+        <v>2007.376624268643</v>
       </c>
       <c r="S36">
-        <v>8.854015874912336E-05</v>
+        <v>0.0006250318463743223</v>
       </c>
       <c r="T36">
-        <v>8.854015874912337E-05</v>
+        <v>0.0006250318463743221</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.334376</v>
+        <v>4.074222333333334</v>
       </c>
       <c r="H37">
-        <v>1.003128</v>
+        <v>12.222667</v>
       </c>
       <c r="I37">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832552</v>
       </c>
       <c r="J37">
-        <v>0.0007929082726986811</v>
+        <v>0.007243422933832551</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>42.03346535718401</v>
+        <v>986.3263158323115</v>
       </c>
       <c r="R37">
-        <v>378.3011882146561</v>
+        <v>8876.936842490803</v>
       </c>
       <c r="S37">
-        <v>0.0002077041388255339</v>
+        <v>0.002763989655818441</v>
       </c>
       <c r="T37">
-        <v>0.0002077041388255339</v>
+        <v>0.002763989655818441</v>
       </c>
     </row>
   </sheetData>
